--- a/data/trans_media/dukeCONF-Provincia-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,4; 75,13</t>
+          <t>69,41; 74,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,24; 82,73</t>
+          <t>78,26; 82,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,92; 90,88</t>
+          <t>87,91; 91,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,72; 70,71</t>
+          <t>64,95; 70,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,32; 81,81</t>
+          <t>77,42; 82,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,38</t>
+          <t>86,81; 89,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,95; 72,11</t>
+          <t>67,92; 72,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,49; 81,77</t>
+          <t>78,33; 81,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,88; 89,78</t>
+          <t>87,8; 89,67</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,2; 84,06</t>
+          <t>80,05; 83,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,44; 86,13</t>
+          <t>82,69; 86,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,04; 80,77</t>
+          <t>78,04; 80,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,41; 85,84</t>
+          <t>82,48; 86,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,65; 79,76</t>
+          <t>75,65; 79,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,88; 85,45</t>
+          <t>81,76; 85,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,16; 80,84</t>
+          <t>78,0; 80,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,03; 85,89</t>
+          <t>83,14; 85,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,45; 81,18</t>
+          <t>78,51; 81,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82,88; 85,32</t>
+          <t>82,81; 85,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,51; 80,42</t>
+          <t>78,52; 80,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>83,16; 85,39</t>
+          <t>83,21; 85,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,63; 88,45</t>
+          <t>84,81; 88,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,71; 89,29</t>
+          <t>85,53; 89,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,88; 84,46</t>
+          <t>80,68; 84,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,38; 90,24</t>
+          <t>86,55; 90,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,21; 88,04</t>
+          <t>84,43; 88,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,59; 86,01</t>
+          <t>82,44; 85,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,69; 83,09</t>
+          <t>79,77; 83,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,26; 88,53</t>
+          <t>85,36; 88,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,25; 87,71</t>
+          <t>85,25; 87,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,67; 87,12</t>
+          <t>84,64; 87,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80,67; 83,22</t>
+          <t>80,72; 83,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,32; 88,95</t>
+          <t>86,42; 88,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,89; 84,39</t>
+          <t>80,86; 84,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,75; 85,96</t>
+          <t>82,69; 85,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,06; 89,39</t>
+          <t>85,29; 89,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,39; 92,87</t>
+          <t>88,73; 92,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,2; 83,01</t>
+          <t>79,26; 83,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,0; 81,66</t>
+          <t>78,18; 81,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,32; 88,62</t>
+          <t>84,19; 88,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 91,77</t>
+          <t>87,39; 91,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,59; 83,19</t>
+          <t>80,61; 83,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,02; 83,45</t>
+          <t>81,15; 83,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85,27; 88,51</t>
+          <t>85,37; 88,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,88; 91,8</t>
+          <t>88,78; 91,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,75; 81,65</t>
+          <t>76,12; 81,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,69; 89,17</t>
+          <t>84,4; 88,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,17; 84,05</t>
+          <t>80,08; 84,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,4; 79,14</t>
+          <t>75,21; 79,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,64; 78,6</t>
+          <t>73,88; 78,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,36; 84,54</t>
+          <t>79,84; 84,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,8; 84,28</t>
+          <t>80,91; 84,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,76; 78,71</t>
+          <t>75,66; 78,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>75,8; 79,56</t>
+          <t>75,97; 79,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,73; 86,18</t>
+          <t>82,98; 86,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,18; 83,84</t>
+          <t>81,23; 83,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>76,08; 78,37</t>
+          <t>75,96; 78,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,81; 84,83</t>
+          <t>80,76; 84,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,04; 87,35</t>
+          <t>83,06; 87,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,49; 85,61</t>
+          <t>81,48; 85,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,92; 90,61</t>
+          <t>86,97; 90,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>76,41; 81,02</t>
+          <t>76,51; 81,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,05; 84,92</t>
+          <t>81,14; 84,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,86; 82,83</t>
+          <t>77,87; 82,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>87,28; 90,47</t>
+          <t>87,15; 90,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,25; 82,39</t>
+          <t>79,21; 82,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,79; 85,78</t>
+          <t>82,8; 85,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,2; 83,43</t>
+          <t>80,31; 83,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,51; 90,08</t>
+          <t>87,64; 90,0</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,94; 88,87</t>
+          <t>85,97; 88,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,31; 87,26</t>
+          <t>84,37; 87,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,1; 79,92</t>
+          <t>77,03; 79,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,64; 86,81</t>
+          <t>83,81; 86,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,58; 87,67</t>
+          <t>84,66; 87,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,3; 85,75</t>
+          <t>83,4; 85,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,69; 79,28</t>
+          <t>76,61; 79,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>83,33; 85,89</t>
+          <t>83,47; 85,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,81; 87,85</t>
+          <t>85,82; 87,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>84,24; 86,18</t>
+          <t>84,14; 86,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>77,29; 79,22</t>
+          <t>77,21; 79,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,09; 86,05</t>
+          <t>83,9; 85,9</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,15; 81,72</t>
+          <t>79,25; 81,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,76; 80,96</t>
+          <t>78,72; 80,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,17; 80,12</t>
+          <t>78,14; 80,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,57; 82,22</t>
+          <t>75,56; 82,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,42; 78,83</t>
+          <t>76,42; 78,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>78,97; 81,11</t>
+          <t>79,05; 81,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>77,1; 79,12</t>
+          <t>77,17; 79,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,59; 75,18</t>
+          <t>72,5; 75,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,18; 79,84</t>
+          <t>78,19; 79,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>79,17; 80,69</t>
+          <t>79,17; 80,77</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>77,94; 79,36</t>
+          <t>77,96; 79,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,49; 78,23</t>
+          <t>74,59; 78,23</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>81,71; 82,99</t>
+          <t>81,68; 82,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>83,61; 84,88</t>
+          <t>83,6; 84,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>80,32; 81,5</t>
+          <t>80,28; 81,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>83,45; 85,06</t>
+          <t>83,49; 85,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>79,08; 80,46</t>
+          <t>79,1; 80,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>81,62; 82,86</t>
+          <t>81,6; 82,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>79,56; 80,69</t>
+          <t>79,64; 80,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>82,45; 83,6</t>
+          <t>82,44; 83,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>80,55; 81,5</t>
+          <t>80,51; 81,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>82,79; 83,66</t>
+          <t>82,78; 83,65</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80,13; 80,95</t>
+          <t>80,17; 80,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>83,09; 84,07</t>
+          <t>83,08; 84,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeCONF-Provincia-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,41; 74,96</t>
+          <t>69,38; 75,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,26; 82,86</t>
+          <t>78,23; 82,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,95; 70,53</t>
+          <t>65,12; 70,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,42; 82,12</t>
+          <t>77,21; 81,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,92; 72,04</t>
+          <t>68,16; 72,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,33; 81,71</t>
+          <t>78,57; 81,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,05; 83,99</t>
+          <t>80,19; 83,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,69; 86,17</t>
+          <t>82,56; 86,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,04; 80,71</t>
+          <t>77,99; 80,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,65; 79,84</t>
+          <t>75,5; 79,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,76; 85,39</t>
+          <t>81,77; 85,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,0; 80,87</t>
+          <t>78,09; 80,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,51; 81,17</t>
+          <t>78,45; 81,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82,81; 85,3</t>
+          <t>82,75; 85,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,52; 80,53</t>
+          <t>78,51; 80,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,81; 88,54</t>
+          <t>84,96; 88,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,53; 89,17</t>
+          <t>85,66; 89,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,68; 84,43</t>
+          <t>80,85; 84,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,43; 88,12</t>
+          <t>84,31; 88,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,44; 85,86</t>
+          <t>82,49; 85,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,77; 83,25</t>
+          <t>79,82; 83,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,25; 87,75</t>
+          <t>85,01; 87,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,64; 87,14</t>
+          <t>84,47; 87,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80,72; 83,31</t>
+          <t>80,74; 83,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,86; 84,25</t>
+          <t>80,81; 84,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,69; 85,84</t>
+          <t>82,76; 85,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,29; 89,53</t>
+          <t>85,22; 89,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,26; 83,21</t>
+          <t>79,22; 83,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,18; 81,81</t>
+          <t>78,09; 81,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,19; 88,65</t>
+          <t>84,32; 88,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,61; 83,34</t>
+          <t>80,7; 83,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,15; 83,38</t>
+          <t>80,86; 83,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85,37; 88,36</t>
+          <t>85,23; 88,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,12; 81,75</t>
+          <t>76,23; 81,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,4; 88,97</t>
+          <t>84,73; 89,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,08; 84,16</t>
+          <t>80,08; 84,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,88; 78,76</t>
+          <t>73,58; 78,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,84; 84,57</t>
+          <t>79,8; 84,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,91; 84,47</t>
+          <t>80,53; 84,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>75,97; 79,71</t>
+          <t>75,65; 79,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,98; 86,28</t>
+          <t>82,86; 86,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,23; 83,73</t>
+          <t>80,96; 83,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,76; 84,96</t>
+          <t>80,77; 84,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,06; 87,59</t>
+          <t>83,42; 87,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,48; 85,65</t>
+          <t>81,27; 85,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>76,51; 81,08</t>
+          <t>76,29; 81,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,14; 84,78</t>
+          <t>81,0; 84,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,87; 82,7</t>
+          <t>77,63; 82,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,21; 82,41</t>
+          <t>79,32; 82,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,8; 85,61</t>
+          <t>82,65; 85,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,31; 83,52</t>
+          <t>80,24; 83,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,97; 88,72</t>
+          <t>86,02; 88,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,37; 87,22</t>
+          <t>84,44; 87,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,03; 79,77</t>
+          <t>77,15; 79,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,66; 87,64</t>
+          <t>84,49; 87,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,4; 85,9</t>
+          <t>83,32; 85,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,61; 79,26</t>
+          <t>76,51; 79,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,82; 87,77</t>
+          <t>85,8; 87,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>84,14; 86,02</t>
+          <t>84,17; 86,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>77,21; 79,21</t>
+          <t>77,16; 79,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,25; 81,74</t>
+          <t>79,24; 81,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,72; 80,97</t>
+          <t>78,72; 80,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,14; 80,03</t>
+          <t>78,15; 80,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,42; 78,79</t>
+          <t>76,35; 78,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>79,05; 81,02</t>
+          <t>79,14; 81,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>77,17; 79,17</t>
+          <t>77,1; 79,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,19; 79,85</t>
+          <t>78,14; 79,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>79,17; 80,77</t>
+          <t>79,18; 80,7</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>77,96; 79,36</t>
+          <t>77,85; 79,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>81,68; 82,99</t>
+          <t>81,7; 83,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>83,6; 84,86</t>
+          <t>83,63; 84,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>80,28; 81,51</t>
+          <t>80,42; 81,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>79,1; 80,47</t>
+          <t>79,08; 80,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>81,6; 82,86</t>
+          <t>81,57; 82,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>79,64; 80,74</t>
+          <t>79,53; 80,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>80,51; 81,5</t>
+          <t>80,56; 81,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>82,78; 83,65</t>
+          <t>82,77; 83,68</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80,17; 80,98</t>
+          <t>80,16; 80,97</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
